--- a/data/trans_dic/P25_10-Urba-trans_dic.xlsx
+++ b/data/trans_dic/P25_10-Urba-trans_dic.xlsx
@@ -7,7 +7,8 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Transversal dicotómica" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Porcentajes" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Totales" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -504,7 +505,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:N11"/>
+  <dimension ref="A1:T12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -529,12 +530,18 @@
     <col width="14" customWidth="1" min="12" max="12"/>
     <col width="14" customWidth="1" min="13" max="13"/>
     <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que padece varices en las piernas</t>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,91%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -546,22 +553,28 @@
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
       <c r="F1" s="3" t="n"/>
-      <c r="G1" s="3" t="inlineStr">
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
-      <c r="K1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="K1" s="3" t="n"/>
       <c r="L1" s="3" t="n"/>
       <c r="M1" s="3" t="n"/>
       <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -583,47 +596,77 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M2</t>
         </is>
       </c>
-      <c r="L2" s="3" t="inlineStr">
+      <c r="P2" s="3" t="inlineStr">
         <is>
           <t>M3</t>
         </is>
       </c>
-      <c r="M2" s="3" t="inlineStr">
+      <c r="Q2" s="3" t="inlineStr">
         <is>
           <t>M4</t>
         </is>
       </c>
-      <c r="N2" s="3" t="inlineStr">
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
         <is>
           <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
         </is>
       </c>
     </row>
@@ -642,6 +685,12 @@
       <c r="L3" s="2" t="n"/>
       <c r="M3" s="2" t="n"/>
       <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -656,62 +705,92 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>6,2%</t>
+          <t>6,28%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>6,54%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>6,78%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
+          <t>8,8%</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
           <t>6,92%</t>
         </is>
       </c>
-      <c r="G4" s="2" t="inlineStr">
-        <is>
-          <t>25,03%</t>
-        </is>
-      </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>11,57%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>20,13%</t>
+          <t>25,53%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>20,78%</t>
+          <t>21,17%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>16,03%</t>
+          <t>20,67%</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>14,19%</t>
+          <t>31,23%</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>13,78%</t>
+          <t>20,79%</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
+          <t>26,53%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>16,33%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>14,16%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>14,0%</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>20,55%</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
           <t>13,97%</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>19,17%</t>
         </is>
       </c>
     </row>
@@ -724,62 +803,92 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>4,45; 8,31</t>
+          <t>4,6; 8,55</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>4,63; 9,85</t>
+          <t>4,46; 9,66</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>4,99; 9,67</t>
+          <t>4,81; 9,44</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>5,22; 8,83</t>
+          <t>6,58; 11,53</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>21,91; 28,36</t>
+          <t>5,25; 8,95</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>18,24; 24,03</t>
+          <t>9,41; 14,07</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>17,19; 22,87</t>
+          <t>22,03; 28,57</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>18,05; 24,11</t>
+          <t>18,4; 23,95</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>14,18; 18,16</t>
+          <t>18,05; 23,51</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>12,53; 16,48</t>
+          <t>27,45; 34,94</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>11,92; 15,7</t>
+          <t>17,93; 24,14</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>12,27; 16,15</t>
+          <t>23,79; 29,94</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>14,53; 18,62</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 16,03</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>12,24; 15,94</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>18,22; 23,09</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>12,23; 15,99</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>17,27; 21,12</t>
         </is>
       </c>
     </row>
@@ -796,62 +905,92 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>6,38%</t>
+          <t>6,5%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>5,73%</t>
+          <t>5,72%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>7,13%</t>
+          <t>6,98%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
+          <t>9,53%</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
           <t>7,62%</t>
         </is>
       </c>
-      <c r="G6" s="2" t="inlineStr">
-        <is>
-          <t>25,91%</t>
-        </is>
-      </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>21,49%</t>
+          <t>10,52%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>21,71%</t>
+          <t>26,36%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
+          <t>21,22%</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>21,97%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>28,71%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
           <t>19,91%</t>
         </is>
       </c>
-      <c r="K6" s="2" t="inlineStr">
-        <is>
-          <t>16,21%</t>
-        </is>
-      </c>
-      <c r="L6" s="2" t="inlineStr">
-        <is>
-          <t>13,59%</t>
-        </is>
-      </c>
-      <c r="M6" s="2" t="inlineStr">
-        <is>
-          <t>14,42%</t>
-        </is>
-      </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
+          <t>25,45%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>16,49%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>13,45%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>14,48%</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>19,14%</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
           <t>13,42%</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>17,66%</t>
         </is>
       </c>
     </row>
@@ -864,62 +1003,92 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>4,44; 8,73</t>
+          <t>4,66; 8,84</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>4,06; 8,05</t>
+          <t>4,02; 7,59</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>5,01; 9,54</t>
+          <t>5,02; 9,3</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>4,8; 11,63</t>
+          <t>7,21; 12,56</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>22,27; 30,59</t>
+          <t>4,71; 11,19</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>18,28; 24,81</t>
+          <t>7,15; 15,26</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>18,06; 25,22</t>
+          <t>22,04; 30,32</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>14,54; 25,5</t>
+          <t>18,31; 24,87</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>13,76; 18,52</t>
+          <t>18,89; 26,42</t>
         </is>
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>11,76; 15,52</t>
+          <t>24,38; 33,67</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>12,29; 16,63</t>
+          <t>14,58; 26,06</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
         <is>
-          <t>10,62; 16,59</t>
+          <t>19,88; 31,46</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>14,38; 19,19</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>11,69; 15,53</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>12,54; 17,02</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>16,46; 22,07</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>10,49; 17,03</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>14,26; 21,76</t>
         </is>
       </c>
     </row>
@@ -936,60 +1105,90 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>5,77%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>8,75%</t>
+          <t>8,87%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>5,02%</t>
+          <t>5,05%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
+          <t>6,3%</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="G8" s="2" t="inlineStr">
-        <is>
-          <t>25,67%</t>
-        </is>
-      </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>19,8%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>22,84%</t>
+          <t>24,72%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
+          <t>20,2%</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>22,92%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>26,68%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
           <t>—%</t>
         </is>
       </c>
-      <c r="K8" s="2" t="inlineStr">
-        <is>
-          <t>15,57%</t>
-        </is>
-      </c>
-      <c r="L8" s="2" t="inlineStr">
-        <is>
-          <t>14,17%</t>
-        </is>
-      </c>
-      <c r="M8" s="2" t="inlineStr">
-        <is>
-          <t>13,81%</t>
-        </is>
-      </c>
       <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>14,81%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>14,43%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>13,87%</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>16,36%</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
         <is>
           <t>—%</t>
         </is>
@@ -1004,60 +1203,90 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>2,09; 11,65</t>
+          <t>1,83; 11,44</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>5,15; 14,15</t>
+          <t>5,26; 14,02</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>2,14; 10,52</t>
+          <t>2,07; 10,27</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
+          <t>2,49; 12,88</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="G9" s="2" t="inlineStr">
-        <is>
-          <t>18,81; 34,47</t>
-        </is>
-      </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>14,49; 26,59</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>16,75; 29,71</t>
+          <t>18,21; 32,87</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
+          <t>14,91; 27,33</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>17,3; 30,5</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>18,9; 35,75</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
           <t>—; —</t>
         </is>
       </c>
-      <c r="K9" s="2" t="inlineStr">
-        <is>
-          <t>11,26; 20,55</t>
-        </is>
-      </c>
-      <c r="L9" s="2" t="inlineStr">
-        <is>
-          <t>10,41; 18,16</t>
-        </is>
-      </c>
-      <c r="M9" s="2" t="inlineStr">
-        <is>
-          <t>10,15; 17,75</t>
-        </is>
-      </c>
       <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>10,75; 19,58</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>10,92; 18,8</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>10,42; 18,1</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>12,26; 21,91</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
         <is>
           <t>—; —</t>
         </is>
@@ -1076,62 +1305,92 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>6,22%</t>
+          <t>6,24%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>6,42%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>6,7%</t>
+          <t>6,58%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
+          <t>8,79%</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
           <t>7,09%</t>
         </is>
       </c>
-      <c r="G10" s="2" t="inlineStr">
-        <is>
-          <t>25,45%</t>
-        </is>
-      </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>21,1%</t>
+          <t>11,31%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>21,04%</t>
+          <t>25,76%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
+          <t>21,08%</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>21,42%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>29,74%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
           <t>20,6%</t>
         </is>
       </c>
-      <c r="K10" s="2" t="inlineStr">
-        <is>
-          <t>16,05%</t>
-        </is>
-      </c>
-      <c r="L10" s="2" t="inlineStr">
-        <is>
-          <t>13,96%</t>
-        </is>
-      </c>
-      <c r="M10" s="2" t="inlineStr">
-        <is>
-          <t>14,03%</t>
-        </is>
-      </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
+          <t>26,29%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>16,21%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>13,92%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>14,17%</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>19,5%</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
           <t>13,84%</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>18,82%</t>
         </is>
       </c>
     </row>
@@ -1144,75 +1403,1519 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>4,95; 7,86</t>
+          <t>4,93; 7,73</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>5,11; 8,01</t>
+          <t>5,22; 8,12</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>5,37; 8,42</t>
+          <t>5,38; 8,17</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>5,62; 8,72</t>
+          <t>7,12; 10,58</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>22,97; 27,91</t>
+          <t>5,68; 8,78</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>18,93; 23,13</t>
+          <t>9,35; 13,55</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>18,91; 23,16</t>
+          <t>23,39; 28,24</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>18,07; 23,31</t>
+          <t>19,11; 23,35</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>14,38; 17,51</t>
+          <t>19,42; 23,82</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>12,78; 15,34</t>
+          <t>27,01; 32,57</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12,91; 15,37</t>
+          <t>18,03; 23,26</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>12,38; 15,47</t>
+          <t>23,75; 29,1</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>14,8; 17,81</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>12,65; 15,21</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>12,82; 15,5</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>17,92; 21,49</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>12,37; 15,6</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>17,16; 20,61</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
   <mergeCells count="8">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="O1:T1"/>
     <mergeCell ref="A4:A5"/>
+    <mergeCell ref="I1:N1"/>
+    <mergeCell ref="A1:B2"/>
+    <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:T16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection pane="bottomRight" activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <cols>
+    <col width="14" customWidth="1" min="1" max="1"/>
+    <col width="14" customWidth="1" min="2" max="2"/>
+    <col width="14" customWidth="1" min="3" max="3"/>
+    <col width="14" customWidth="1" min="4" max="4"/>
+    <col width="14" customWidth="1" min="5" max="5"/>
+    <col width="14" customWidth="1" min="6" max="6"/>
+    <col width="14" customWidth="1" min="7" max="7"/>
+    <col width="14" customWidth="1" min="8" max="8"/>
+    <col width="14" customWidth="1" min="9" max="9"/>
+    <col width="14" customWidth="1" min="10" max="10"/>
+    <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
+    <col width="14" customWidth="1" min="18" max="18"/>
+    <col width="14" customWidth="1" min="19" max="19"/>
+    <col width="14" customWidth="1" min="20" max="20"/>
+  </cols>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Población que padece varices en las piernas (tasa de respuesta: 99,91%)</t>
+        </is>
+      </c>
+      <c r="B1" s="2" t="n"/>
+      <c r="C1" s="3" t="inlineStr">
+        <is>
+          <t>Hombre</t>
+        </is>
+      </c>
+      <c r="D1" s="3" t="n"/>
+      <c r="E1" s="3" t="n"/>
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="n"/>
+      <c r="I1" s="3" t="inlineStr">
+        <is>
+          <t>Mujer</t>
+        </is>
+      </c>
+      <c r="J1" s="3" t="n"/>
+      <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="n"/>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
+      <c r="R1" s="3" t="n"/>
+      <c r="S1" s="3" t="n"/>
+      <c r="T1" s="3" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="4" t="n"/>
+      <c r="B2" s="2" t="n"/>
+      <c r="C2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="D2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="E2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="F2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="I2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="J2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="N2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+      <c r="O2" s="3" t="inlineStr">
+        <is>
+          <t>M2</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M3</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>M4</t>
+        </is>
+      </c>
+      <c r="R2" s="3" t="inlineStr">
+        <is>
+          <t>M5</t>
+        </is>
+      </c>
+      <c r="S2" s="3" t="inlineStr">
+        <is>
+          <t>Mz1</t>
+        </is>
+      </c>
+      <c r="T2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3" hidden="1">
+      <c r="A3" s="4" t="n"/>
+      <c r="B3" s="2" t="n"/>
+      <c r="C3" s="2" t="n"/>
+      <c r="D3" s="2" t="n"/>
+      <c r="E3" s="2" t="n"/>
+      <c r="F3" s="2" t="n"/>
+      <c r="G3" s="2" t="n"/>
+      <c r="H3" s="2" t="n"/>
+      <c r="I3" s="2" t="n"/>
+      <c r="J3" s="2" t="n"/>
+      <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
+      <c r="R3" s="2" t="n"/>
+      <c r="S3" s="2" t="n"/>
+      <c r="T3" s="2" t="n"/>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>Urbano</t>
+        </is>
+      </c>
+      <c r="B4" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C4" s="2" t="inlineStr">
+        <is>
+          <t>39.0</t>
+        </is>
+      </c>
+      <c r="D4" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="E4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="F4" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G4" s="2" t="inlineStr">
+        <is>
+          <t>52.0</t>
+        </is>
+      </c>
+      <c r="H4" s="2" t="inlineStr">
+        <is>
+          <t>87.0</t>
+        </is>
+      </c>
+      <c r="I4" s="2" t="inlineStr">
+        <is>
+          <t>176.0</t>
+        </is>
+      </c>
+      <c r="J4" s="2" t="inlineStr">
+        <is>
+          <t>183.0</t>
+        </is>
+      </c>
+      <c r="K4" s="2" t="inlineStr">
+        <is>
+          <t>182.0</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>175.0</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>234.0</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>215.0</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>232.0</t>
+        </is>
+      </c>
+      <c r="R4" s="2" t="inlineStr">
+        <is>
+          <t>244.0</t>
+        </is>
+      </c>
+      <c r="S4" s="2" t="inlineStr">
+        <is>
+          <t>227.0</t>
+        </is>
+      </c>
+      <c r="T4" s="2" t="inlineStr">
+        <is>
+          <t>321.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n"/>
+      <c r="B5" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C5" s="2" t="inlineStr">
+        <is>
+          <t>103678</t>
+        </is>
+      </c>
+      <c r="D5" s="2" t="inlineStr">
+        <is>
+          <t>105170</t>
+        </is>
+      </c>
+      <c r="E5" s="2" t="inlineStr">
+        <is>
+          <t>109164</t>
+        </is>
+      </c>
+      <c r="F5" s="2" t="inlineStr">
+        <is>
+          <t>144315</t>
+        </is>
+      </c>
+      <c r="G5" s="2" t="inlineStr">
+        <is>
+          <t>15875</t>
+        </is>
+      </c>
+      <c r="H5" s="2" t="inlineStr">
+        <is>
+          <t>26354</t>
+        </is>
+      </c>
+      <c r="I5" s="2" t="inlineStr">
+        <is>
+          <t>460148</t>
+        </is>
+      </c>
+      <c r="J5" s="2" t="inlineStr">
+        <is>
+          <t>386417</t>
+        </is>
+      </c>
+      <c r="K5" s="2" t="inlineStr">
+        <is>
+          <t>375293</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>562994</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>49351</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>62505</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>563826</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>491586</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>484457</t>
+        </is>
+      </c>
+      <c r="R5" s="2" t="inlineStr">
+        <is>
+          <t>707309</t>
+        </is>
+      </c>
+      <c r="S5" s="2" t="inlineStr">
+        <is>
+          <t>65226</t>
+        </is>
+      </c>
+      <c r="T5" s="2" t="inlineStr">
+        <is>
+          <t>88859</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n"/>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C6" s="2" t="inlineStr">
+        <is>
+          <t>75838; 141035</t>
+        </is>
+      </c>
+      <c r="D6" s="2" t="inlineStr">
+        <is>
+          <t>73437; 159188</t>
+        </is>
+      </c>
+      <c r="E6" s="2" t="inlineStr">
+        <is>
+          <t>79179; 155320</t>
+        </is>
+      </c>
+      <c r="F6" s="2" t="inlineStr">
+        <is>
+          <t>107824; 189067</t>
+        </is>
+      </c>
+      <c r="G6" s="2" t="inlineStr">
+        <is>
+          <t>12048; 20543</t>
+        </is>
+      </c>
+      <c r="H6" s="2" t="inlineStr">
+        <is>
+          <t>21434; 32069</t>
+        </is>
+      </c>
+      <c r="I6" s="2" t="inlineStr">
+        <is>
+          <t>397060; 515103</t>
+        </is>
+      </c>
+      <c r="J6" s="2" t="inlineStr">
+        <is>
+          <t>335776; 437113</t>
+        </is>
+      </c>
+      <c r="K6" s="2" t="inlineStr">
+        <is>
+          <t>327648; 426809</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>494970; 629982</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>42561; 57322</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>56048; 70530</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>501509; 642774</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>435497; 556565</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>423496; 551562</t>
+        </is>
+      </c>
+      <c r="R6" s="2" t="inlineStr">
+        <is>
+          <t>627025; 794739</t>
+        </is>
+      </c>
+      <c r="S6" s="2" t="inlineStr">
+        <is>
+          <t>57108; 74646</t>
+        </is>
+      </c>
+      <c r="T6" s="2" t="inlineStr">
+        <is>
+          <t>80054; 97863</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="1" t="inlineStr">
+        <is>
+          <t>Intermedio</t>
+        </is>
+      </c>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C7" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="D7" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="E7" s="2" t="inlineStr">
+        <is>
+          <t>43.0</t>
+        </is>
+      </c>
+      <c r="F7" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="G7" s="2" t="inlineStr">
+        <is>
+          <t>21.0</t>
+        </is>
+      </c>
+      <c r="H7" s="2" t="inlineStr">
+        <is>
+          <t>30.0</t>
+        </is>
+      </c>
+      <c r="I7" s="2" t="inlineStr">
+        <is>
+          <t>138.0</t>
+        </is>
+      </c>
+      <c r="J7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="K7" s="2" t="inlineStr">
+        <is>
+          <t>141.0</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>144.0</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>48.0</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>61.0</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>173.0</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>177.0</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>184.0</t>
+        </is>
+      </c>
+      <c r="R7" s="2" t="inlineStr">
+        <is>
+          <t>194.0</t>
+        </is>
+      </c>
+      <c r="S7" s="2" t="inlineStr">
+        <is>
+          <t>69.0</t>
+        </is>
+      </c>
+      <c r="T7" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n"/>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C8" s="2" t="inlineStr">
+        <is>
+          <t>89303</t>
+        </is>
+      </c>
+      <c r="D8" s="2" t="inlineStr">
+        <is>
+          <t>78687</t>
+        </is>
+      </c>
+      <c r="E8" s="2" t="inlineStr">
+        <is>
+          <t>96251</t>
+        </is>
+      </c>
+      <c r="F8" s="2" t="inlineStr">
+        <is>
+          <t>131811</t>
+        </is>
+      </c>
+      <c r="G8" s="2" t="inlineStr">
+        <is>
+          <t>5509</t>
+        </is>
+      </c>
+      <c r="H8" s="2" t="inlineStr">
+        <is>
+          <t>7690</t>
+        </is>
+      </c>
+      <c r="I8" s="2" t="inlineStr">
+        <is>
+          <t>366794</t>
+        </is>
+      </c>
+      <c r="J8" s="2" t="inlineStr">
+        <is>
+          <t>291026</t>
+        </is>
+      </c>
+      <c r="K8" s="2" t="inlineStr">
+        <is>
+          <t>303189</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>398761</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>12851</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>17030</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>456097</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>369713</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>399440</t>
+        </is>
+      </c>
+      <c r="R8" s="2" t="inlineStr">
+        <is>
+          <t>530572</t>
+        </is>
+      </c>
+      <c r="S8" s="2" t="inlineStr">
+        <is>
+          <t>18360</t>
+        </is>
+      </c>
+      <c r="T8" s="2" t="inlineStr">
+        <is>
+          <t>24720</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n"/>
+      <c r="B9" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C9" s="2" t="inlineStr">
+        <is>
+          <t>64036; 121457</t>
+        </is>
+      </c>
+      <c r="D9" s="2" t="inlineStr">
+        <is>
+          <t>55369; 104450</t>
+        </is>
+      </c>
+      <c r="E9" s="2" t="inlineStr">
+        <is>
+          <t>69163; 128313</t>
+        </is>
+      </c>
+      <c r="F9" s="2" t="inlineStr">
+        <is>
+          <t>99633; 173639</t>
+        </is>
+      </c>
+      <c r="G9" s="2" t="inlineStr">
+        <is>
+          <t>3406; 8092</t>
+        </is>
+      </c>
+      <c r="H9" s="2" t="inlineStr">
+        <is>
+          <t>5228; 11150</t>
+        </is>
+      </c>
+      <c r="I9" s="2" t="inlineStr">
+        <is>
+          <t>306693; 421954</t>
+        </is>
+      </c>
+      <c r="J9" s="2" t="inlineStr">
+        <is>
+          <t>251055; 341026</t>
+        </is>
+      </c>
+      <c r="K9" s="2" t="inlineStr">
+        <is>
+          <t>260751; 364747</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>338608; 467602</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>9413; 16821</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>13301; 21053</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>397661; 530813</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>321228; 426678</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>345916; 469664</t>
+        </is>
+      </c>
+      <c r="R9" s="2" t="inlineStr">
+        <is>
+          <t>456303; 611803</t>
+        </is>
+      </c>
+      <c r="S9" s="2" t="inlineStr">
+        <is>
+          <t>14350; 23302</t>
+        </is>
+      </c>
+      <c r="T9" s="2" t="inlineStr">
+        <is>
+          <t>19960; 30456</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="inlineStr">
+        <is>
+          <t>Rural</t>
+        </is>
+      </c>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C10" s="2" t="inlineStr">
+        <is>
+          <t>6.0</t>
+        </is>
+      </c>
+      <c r="D10" s="2" t="inlineStr">
+        <is>
+          <t>15.0</t>
+        </is>
+      </c>
+      <c r="E10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="F10" s="2" t="inlineStr">
+        <is>
+          <t>7.0</t>
+        </is>
+      </c>
+      <c r="G10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="H10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="I10" s="2" t="inlineStr">
+        <is>
+          <t>36.0</t>
+        </is>
+      </c>
+      <c r="J10" s="2" t="inlineStr">
+        <is>
+          <t>35.0</t>
+        </is>
+      </c>
+      <c r="K10" s="2" t="inlineStr">
+        <is>
+          <t>40.0</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>37.0</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>42.0</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>50.0</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>47.0</t>
+        </is>
+      </c>
+      <c r="R10" s="2" t="inlineStr">
+        <is>
+          <t>44.0</t>
+        </is>
+      </c>
+      <c r="S10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+      <c r="T10" s="2" t="inlineStr">
+        <is>
+          <t>0.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n"/>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C11" s="2" t="inlineStr">
+        <is>
+          <t>22014</t>
+        </is>
+      </c>
+      <c r="D11" s="2" t="inlineStr">
+        <is>
+          <t>37485</t>
+        </is>
+      </c>
+      <c r="E11" s="2" t="inlineStr">
+        <is>
+          <t>21333</t>
+        </is>
+      </c>
+      <c r="F11" s="2" t="inlineStr">
+        <is>
+          <t>26647</t>
+        </is>
+      </c>
+      <c r="G11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="H11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="I11" s="2" t="inlineStr">
+        <is>
+          <t>101239</t>
+        </is>
+      </c>
+      <c r="J11" s="2" t="inlineStr">
+        <is>
+          <t>82402</t>
+        </is>
+      </c>
+      <c r="K11" s="2" t="inlineStr">
+        <is>
+          <t>94404</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>109887</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>123253</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>119887</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>115737</t>
+        </is>
+      </c>
+      <c r="R11" s="2" t="inlineStr">
+        <is>
+          <t>136534</t>
+        </is>
+      </c>
+      <c r="S11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+      <c r="T11" s="2" t="inlineStr">
+        <is>
+          <t>—</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="n"/>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>7735; 48359</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>22252; 59288</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>8742; 43417</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>10521; 54442</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>74580; 134623</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>60799; 111483</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>71242; 125621</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>77857; 147239</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>89518; 162990</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>90687; 156181</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>86959; 151069</t>
+        </is>
+      </c>
+      <c r="R12" s="2" t="inlineStr">
+        <is>
+          <t>102361; 182871</t>
+        </is>
+      </c>
+      <c r="S12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="T12" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>80.0</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>91.0</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>100.0</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>107.0</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>73.0</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>117.0</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>350.0</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>359.0</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>363.0</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>375.0</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>223.0</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>295.0</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>430.0</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>450.0</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>463.0</t>
+        </is>
+      </c>
+      <c r="R13" s="2" t="inlineStr">
+        <is>
+          <t>482.0</t>
+        </is>
+      </c>
+      <c r="S13" s="2" t="inlineStr">
+        <is>
+          <t>296.0</t>
+        </is>
+      </c>
+      <c r="T13" s="2" t="inlineStr">
+        <is>
+          <t>412.0</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="1" t="n"/>
+      <c r="B14" s="3" t="inlineStr">
+        <is>
+          <t>N (estimada)</t>
+        </is>
+      </c>
+      <c r="C14" s="2" t="inlineStr">
+        <is>
+          <t>214995</t>
+        </is>
+      </c>
+      <c r="D14" s="2" t="inlineStr">
+        <is>
+          <t>221342</t>
+        </is>
+      </c>
+      <c r="E14" s="2" t="inlineStr">
+        <is>
+          <t>226748</t>
+        </is>
+      </c>
+      <c r="F14" s="2" t="inlineStr">
+        <is>
+          <t>302773</t>
+        </is>
+      </c>
+      <c r="G14" s="2" t="inlineStr">
+        <is>
+          <t>21384</t>
+        </is>
+      </c>
+      <c r="H14" s="2" t="inlineStr">
+        <is>
+          <t>34044</t>
+        </is>
+      </c>
+      <c r="I14" s="2" t="inlineStr">
+        <is>
+          <t>928181</t>
+        </is>
+      </c>
+      <c r="J14" s="2" t="inlineStr">
+        <is>
+          <t>759844</t>
+        </is>
+      </c>
+      <c r="K14" s="2" t="inlineStr">
+        <is>
+          <t>772885</t>
+        </is>
+      </c>
+      <c r="L14" s="2" t="inlineStr">
+        <is>
+          <t>1071642</t>
+        </is>
+      </c>
+      <c r="M14" s="2" t="inlineStr">
+        <is>
+          <t>62202</t>
+        </is>
+      </c>
+      <c r="N14" s="2" t="inlineStr">
+        <is>
+          <t>79535</t>
+        </is>
+      </c>
+      <c r="O14" s="2" t="inlineStr">
+        <is>
+          <t>1143177</t>
+        </is>
+      </c>
+      <c r="P14" s="2" t="inlineStr">
+        <is>
+          <t>981185</t>
+        </is>
+      </c>
+      <c r="Q14" s="2" t="inlineStr">
+        <is>
+          <t>999633</t>
+        </is>
+      </c>
+      <c r="R14" s="2" t="inlineStr">
+        <is>
+          <t>1374415</t>
+        </is>
+      </c>
+      <c r="S14" s="2" t="inlineStr">
+        <is>
+          <t>83586</t>
+        </is>
+      </c>
+      <c r="T14" s="2" t="inlineStr">
+        <is>
+          <t>113579</t>
+        </is>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="1" t="n"/>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C15" s="2" t="inlineStr">
+        <is>
+          <t>169987; 266274</t>
+        </is>
+      </c>
+      <c r="D15" s="2" t="inlineStr">
+        <is>
+          <t>179839; 279858</t>
+        </is>
+      </c>
+      <c r="E15" s="2" t="inlineStr">
+        <is>
+          <t>185464; 281685</t>
+        </is>
+      </c>
+      <c r="F15" s="2" t="inlineStr">
+        <is>
+          <t>245324; 364361</t>
+        </is>
+      </c>
+      <c r="G15" s="2" t="inlineStr">
+        <is>
+          <t>17141; 26498</t>
+        </is>
+      </c>
+      <c r="H15" s="2" t="inlineStr">
+        <is>
+          <t>28132; 40790</t>
+        </is>
+      </c>
+      <c r="I15" s="2" t="inlineStr">
+        <is>
+          <t>842974; 1017761</t>
+        </is>
+      </c>
+      <c r="J15" s="2" t="inlineStr">
+        <is>
+          <t>688866; 841432</t>
+        </is>
+      </c>
+      <c r="K15" s="2" t="inlineStr">
+        <is>
+          <t>700496; 859394</t>
+        </is>
+      </c>
+      <c r="L15" s="2" t="inlineStr">
+        <is>
+          <t>973337; 1173715</t>
+        </is>
+      </c>
+      <c r="M15" s="2" t="inlineStr">
+        <is>
+          <t>54452; 70253</t>
+        </is>
+      </c>
+      <c r="N15" s="2" t="inlineStr">
+        <is>
+          <t>71846; 88030</t>
+        </is>
+      </c>
+      <c r="O15" s="2" t="inlineStr">
+        <is>
+          <t>1043528; 1255642</t>
+        </is>
+      </c>
+      <c r="P15" s="2" t="inlineStr">
+        <is>
+          <t>891740; 1072821</t>
+        </is>
+      </c>
+      <c r="Q15" s="2" t="inlineStr">
+        <is>
+          <t>904568; 1093392</t>
+        </is>
+      </c>
+      <c r="R15" s="2" t="inlineStr">
+        <is>
+          <t>1263025; 1514391</t>
+        </is>
+      </c>
+      <c r="S15" s="2" t="inlineStr">
+        <is>
+          <t>74698; 94199</t>
+        </is>
+      </c>
+      <c r="T15" s="2" t="inlineStr">
+        <is>
+          <t>103531; 124391</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="A7:A9"/>
+    <mergeCell ref="A4:A6"/>
+    <mergeCell ref="O1:T1"/>
+    <mergeCell ref="A10:A12"/>
+    <mergeCell ref="I1:N1"/>
     <mergeCell ref="A1:B2"/>
-    <mergeCell ref="C1:F1"/>
-    <mergeCell ref="G1:J1"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="A13:A15"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
